--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235711.6181997126</v>
+        <v>-221721.813032766</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17297070.25717502</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8914336.93187204</v>
+        <v>8965703.3314726</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +668,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>261.2235612015864</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.5279315896952</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>52.83200069764749</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>93.69779069421061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>94.34886038021718</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>355.6611154650816</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7641785672305</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,13 +1108,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>135.4076365009127</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>267.1066349669715</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>288.888246974208</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.97847166731351</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088412</v>
       </c>
       <c r="D11" t="n">
-        <v>147.9266932278884</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>191.858557537012</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>166.1507936381778</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023178</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1607,22 +1607,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.588755294886</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704912</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,13 +1822,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>227.7248168572584</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>215.9656752709736</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948864</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>22.28534392848124</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>220.0133209501114</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4898091149277</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>177.7336819613891</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>54.82067209134888</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>156.6206910823157</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>56.63677140718758</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>112.1673564559258</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>221.130335438941</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3247,13 +3247,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>146.8581123645743</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>166.2277260299477</v>
       </c>
     </row>
     <row r="35">
@@ -3424,16 +3424,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>52.49195549286344</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>227.4728658087945</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.5835062384836</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3079795468358</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.0976184357248</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>428.9839288517127</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1356867533092</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9307845213937</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7857844696408</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.36228653642631</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4134863141167</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.1770111145782</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5377120239366</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3538315015019</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.4979702449073</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.750193921768</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4473639902222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.7661443289175</v>
+        <v>43.77283765622082</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.4869149562863</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>45.41216197362702</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.32028119149636</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.75057454010678</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.1958864734083</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>242.9675834157542</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.1956021978506</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.8530718279963</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.4847685783466</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.5835062384837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3079795468359</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.0976184357249</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>428.9839288517127</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1356867533093</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9307845213937</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7857844696409</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.36228653642631</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4134863141167</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.1770111145782</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5377120239367</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.353831501502</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.4979702449074</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7501939217681</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4473639902222</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.08472694640614</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0500840249542</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.32028119149636</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.75057454010679</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.1958864734083</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>242.9675834157542</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.1956021978507</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>245.6151372338769</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.8530718279964</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.4847685783466</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.5835062384836</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3079795468358</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.0976184357248</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>428.9839288517127</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1356867533092</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9307845213937</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.7857844696408</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.36228653642631</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4134863141167</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.1770111145782</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5377120239366</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3538315015019</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.4979702449073</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.750193921768</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4473639902222</v>
+        <v>27.97358346682174</v>
       </c>
       <c r="C46" t="n">
-        <v>170.3830258600323</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.7661443289175</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6073551701951</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>43.65908837582474</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4822936828556</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0500840249542</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.32028119149636</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.1958864734083</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>242.9675834157542</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.1956021978506</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6328845066988</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.8530718279963</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.4847685783466</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548.3728793740404</v>
+        <v>974.3314239678709</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>536.1889511512942</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>504.3195703661428</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>474.585229564842</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1060.105262105833</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>1060.105262105833</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>1060.105262105833</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>1060.105262105833</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1060.105262105833</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990836</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949431</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886324</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2032.170897759363</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2032.170897759363</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1669.553947693189</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1264.698493104223</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1000.836310072317</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6724498589482</v>
+        <v>996.5905904123747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1178.821982214972</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1072.365521051614</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>977.275232198167</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>883.1548175251207</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>799.7709791412824</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>714.3858894074663</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>672.6502372236787</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>698.7139103841363</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1023.272235350349</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1601.405010029214</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1677.978281976072</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2218.717220608148</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2272.434561150871</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2142.255917481472</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1965.919370481441</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1766.80185254344</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1581.479098276634</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1426.611662515514</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1300.125883294735</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.8710373887344</v>
+        <v>776.5071950309123</v>
       </c>
       <c r="C4" t="n">
-        <v>87.30932587195935</v>
+        <v>776.5071950309123</v>
       </c>
       <c r="D4" t="n">
-        <v>87.30932587195935</v>
+        <v>610.629202232435</v>
       </c>
       <c r="E4" t="n">
-        <v>87.30932587195935</v>
+        <v>440.8711984831722</v>
       </c>
       <c r="F4" t="n">
-        <v>87.30932587195935</v>
+        <v>440.8711984831722</v>
       </c>
       <c r="G4" t="n">
-        <v>87.30932587195935</v>
+        <v>275.2799235089999</v>
       </c>
       <c r="H4" t="n">
-        <v>87.30932587195935</v>
+        <v>135.3777491993744</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404975</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>133.2974851387396</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>408.0559397098752</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>498.7784103034742</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>958.2622774843873</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1400.521080642032</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1820.190329867813</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2167.697223838155</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702487</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2314.472177407859</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2155.230808705856</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1909.351362284311</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1630.918361537416</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1343.962853407847</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>1249.318620383392</v>
       </c>
       <c r="X4" t="n">
-        <v>679.1093267936133</v>
+        <v>1003.926865716804</v>
       </c>
       <c r="Y4" t="n">
-        <v>451.6896561077215</v>
+        <v>776.5071950309123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>907.846853507573</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5449743356364</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>780.675593550485</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9412527491843</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.309253581271</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W5" t="n">
-        <v>1353.494203032709</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X5" t="n">
-        <v>934.3517396120193</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y5" t="n">
-        <v>930.1060199520767</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.7016723508711</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>203.7016723508711</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1005.1071068273</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>868.3317164223374</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>622.9399617557499</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.5202910698582</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>958.9147199317615</v>
+        <v>866.5213804116895</v>
       </c>
       <c r="C8" t="n">
-        <v>924.8126511555888</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D8" t="n">
-        <v>892.9432703704374</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1405.37712000546</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1000.521665416493</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>985.4196060362078</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1738863762653</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>341.3779633559367</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>341.3779633559367</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.942061378414</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.986553248845</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.986553248845</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1005.594798582257</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>910.6670494233545</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1818.712473117423</v>
+        <v>2217.670438736348</v>
       </c>
       <c r="C11" t="n">
-        <v>1380.570000300846</v>
+        <v>1779.527965919771</v>
       </c>
       <c r="D11" t="n">
-        <v>1231.149098050454</v>
+        <v>1343.618181094215</v>
       </c>
       <c r="E11" t="n">
-        <v>797.374353208749</v>
+        <v>909.8434362525103</v>
       </c>
       <c r="F11" t="n">
-        <v>369.5069236179567</v>
+        <v>481.976006661718</v>
       </c>
       <c r="G11" t="n">
-        <v>369.5069236179567</v>
+        <v>80.57817528498182</v>
       </c>
       <c r="H11" t="n">
-        <v>80.37676906117295</v>
+        <v>80.57817528498182</v>
       </c>
       <c r="I11" t="n">
-        <v>79.95997968831296</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J11" t="n">
-        <v>515.2146671412308</v>
+        <v>515.4160733650397</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.564959099409</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>1473.856592300293</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="M11" t="n">
-        <v>1473.856592300293</v>
+        <v>2341.763515985725</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.856592300293</v>
+        <v>2464.106570061043</v>
       </c>
       <c r="O11" t="n">
-        <v>2454.036258870599</v>
+        <v>2464.106570061043</v>
       </c>
       <c r="P11" t="n">
-        <v>3282.346133703996</v>
+        <v>3292.41644489444</v>
       </c>
       <c r="Q11" t="n">
-        <v>3828.844919662591</v>
+        <v>3838.915230853035</v>
       </c>
       <c r="R11" t="n">
-        <v>3997.998984415648</v>
+        <v>4008.069295606092</v>
       </c>
       <c r="S11" t="n">
-        <v>3914.347110599484</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="T11" t="n">
-        <v>3694.279883472523</v>
+        <v>3924.417421789929</v>
       </c>
       <c r="U11" t="n">
-        <v>3435.05758078954</v>
+        <v>3665.195119106946</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.440630723367</v>
+        <v>3471.398596342292</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.440630723367</v>
+        <v>3471.398596342292</v>
       </c>
       <c r="X11" t="n">
-        <v>2653.298167302677</v>
+        <v>3052.256132921603</v>
       </c>
       <c r="Y11" t="n">
-        <v>2245.012043602331</v>
+        <v>2643.970009221256</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.1317246796058</v>
+        <v>586.3331309034146</v>
       </c>
       <c r="C12" t="n">
-        <v>479.675263516248</v>
+        <v>479.8766697400569</v>
       </c>
       <c r="D12" t="n">
-        <v>384.5849746628013</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>290.464559989755</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>207.0807216059166</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>121.6956318721005</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>79.95997968831296</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="I12" t="n">
-        <v>106.0236528487706</v>
+        <v>106.2250590725794</v>
       </c>
       <c r="J12" t="n">
-        <v>430.5819778149828</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1111.31549788536</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="L12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="M12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="N12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="O12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="P12" t="n">
-        <v>1743.199741167122</v>
+        <v>1085.489430664515</v>
       </c>
       <c r="Q12" t="n">
-        <v>1743.199741167122</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.199741167122</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.744303615505</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.565659946107</v>
+        <v>1549.767066169915</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.229112946075</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.111595008074</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>988.7888407412681</v>
+        <v>988.9902469650769</v>
       </c>
       <c r="X12" t="n">
-        <v>833.9214049801482</v>
+        <v>834.122811203957</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.4356257593689</v>
+        <v>707.6370319831777</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1061.480221519634</v>
+        <v>768.2374020351062</v>
       </c>
       <c r="C13" t="n">
-        <v>888.9185100028587</v>
+        <v>595.6756905183312</v>
       </c>
       <c r="D13" t="n">
-        <v>723.0405172043814</v>
+        <v>429.7976977198539</v>
       </c>
       <c r="E13" t="n">
-        <v>553.2825134551188</v>
+        <v>260.0396939705911</v>
       </c>
       <c r="F13" t="n">
-        <v>385.4534289721108</v>
+        <v>83.33263993234729</v>
       </c>
       <c r="G13" t="n">
-        <v>219.8621539979384</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="H13" t="n">
-        <v>79.95997968831296</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95997968831296</v>
+        <v>80.16138591212183</v>
       </c>
       <c r="J13" t="n">
-        <v>166.5396648530028</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>441.2981194241384</v>
+        <v>441.4995256479472</v>
       </c>
       <c r="L13" t="n">
-        <v>859.5080011920994</v>
+        <v>859.7094074159083</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.991868373012</v>
+        <v>1319.193274596821</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.250671530657</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2180.919920756438</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.42681472678</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.619589591113</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.619589591113</v>
+        <v>2675.403174520293</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.378220889109</v>
+        <v>2516.16180581829</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.498774467565</v>
+        <v>2270.282359396745</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.06577372067</v>
+        <v>1991.84935864985</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.1102655911</v>
+        <v>1704.893850520281</v>
       </c>
       <c r="W13" t="n">
-        <v>1726.1102655911</v>
+        <v>1432.867446106573</v>
       </c>
       <c r="X13" t="n">
-        <v>1480.718510924513</v>
+        <v>1187.475691439985</v>
       </c>
       <c r="Y13" t="n">
-        <v>1253.298840238621</v>
+        <v>960.0560207540934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="L14" t="n">
-        <v>936.6111322289576</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5367,13 +5367,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>838.9992856166222</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>838.999285616622</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420841</v>
+        <v>673.121292818146</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928213</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1783.923745475924</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1258.237575021501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376324</v>
+        <v>1030.817904335609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5510,55 +5510,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.5782250957714</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>777.0165135789963</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>611.138520780519</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>441.3805170312562</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>264.6734629930124</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>264.6734629930124</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>124.7712886833869</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5692,31 +5692,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878955</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.62318245741</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710515</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580946</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167238</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.81651450065</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814759</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,22 +5753,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D22" t="n">
         <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181458</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>496.414238779902</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5929,31 +5929,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2437.972203577712</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2159.539202830817</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1872.583694701248</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1600.557290287539</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.557290287539</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="23">
@@ -5993,10 +5993,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1004.611946844417</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C25" t="n">
-        <v>832.0502353276421</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D25" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6166,31 +6166,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S25" t="n">
-        <v>2560.717731908614</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T25" t="n">
-        <v>2314.838285487069</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U25" t="n">
-        <v>2036.405284740174</v>
+        <v>2013.948813008504</v>
       </c>
       <c r="V25" t="n">
-        <v>1749.449776610605</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.423372196896</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X25" t="n">
-        <v>1232.031617530309</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y25" t="n">
-        <v>1004.611946844417</v>
+        <v>982.1554751127467</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1068.769857140659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>896.2081456238835</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>730.3301528254062</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6385,7 +6385,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1260.588475859646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2291.478512820576</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N29" t="n">
-        <v>3417.209496257023</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>4397.38916282733</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>838.9992856166232</v>
+        <v>982.1554751127512</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>982.1554751127512</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>816.2774823142739</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>646.5194785650111</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>469.8124245267674</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>304.221149552595</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6658,13 +6658,13 @@
         <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1503.629329688089</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1258.237575021502</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1030.81790433561</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G33" t="n">
         <v>143.9964924545671</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>849.8497331100111</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674085</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181458</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F34" t="n">
-        <v>496.414238779902</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1994.290572595111</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1041.668351828998</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,46 +6941,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>3135.398407382221</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382221</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952527</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>838.9992856166232</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166232</v>
+        <v>885.0724125931607</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>719.1944197946834</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>549.4364160454207</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
@@ -7087,7 +7087,7 @@
         <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7096,10 +7096,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U37" t="n">
-        <v>2062.611242231368</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V37" t="n">
-        <v>1775.655734101798</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W37" t="n">
-        <v>1503.62932968809</v>
+        <v>1722.264168181402</v>
       </c>
       <c r="X37" t="n">
-        <v>1258.237575021502</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.81790433561</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.598126712566</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>390.7940882186505</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3762661062746</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.726558064453</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.786524317312</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2581.936540552485</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N38" t="n">
-        <v>2581.936540552485</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.116207122791</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4390.426081956187</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q38" t="n">
-        <v>4936.924867914781</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.078932667838</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5022.884703843165</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.275121707694</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.510464016201</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.95334934404</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.268530914841</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.440052205984</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1084.402565687104</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C40" t="n">
-        <v>912.2984991618191</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D40" t="n">
-        <v>746.8781513548317</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E40" t="n">
-        <v>577.577792597059</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>401.3283835503051</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>236.1947535676228</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3238828871915</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.3567941015008</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>883.0152137256212</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.728178684939</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.36949140543</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2701.409315102293</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.625591391779</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2297.203789961724</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U40" t="n">
-        <v>2019.228434206319</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.228434206319</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1747.659674784101</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.725565109003</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.763539414601</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.461159053414</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.7342746038967</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7940882186506</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.3762661062746</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.726558064453</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.786524317312</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.786524317312</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2581.936540552485</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3562.116207122791</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4390.426081956187</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4936.924867914781</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.078932667838</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5022.884703843165</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.275121707693</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.5104640162</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4182.351158941516</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3359.26853091484</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2951.440052205983</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>836.3064674710673</v>
+        <v>1035.728611060352</v>
       </c>
       <c r="C43" t="n">
-        <v>664.2024009457823</v>
+        <v>863.1668995435765</v>
       </c>
       <c r="D43" t="n">
-        <v>664.2024009457823</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E43" t="n">
-        <v>494.9020421880094</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>494.9020421880094</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>329.768412205327</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>190.3238828871915</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>464.3567941015008</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.0152137256212</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2553.72817868494</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2722.369491405431</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2701.409315102293</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2542.625591391779</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T43" t="n">
-        <v>2297.203789961724</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2019.22843420632</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V43" t="n">
-        <v>1771.132335990282</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.563576568064</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X43" t="n">
-        <v>1254.629466892966</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="Y43" t="n">
-        <v>1027.667441198565</v>
+        <v>1227.547229779339</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2525.598126712565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2087.913298887479</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.461159053413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1219.144059203199</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>791.7342746038962</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7940882186505</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.3762661062746</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.726558064453</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.786524317312</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M44" t="n">
-        <v>2581.936540552485</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2581.936540552485</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3562.116207122791</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4390.426081956187</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4936.924867914781</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.078932667838</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5022.884703843164</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.275121707693</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.5104640162</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4182.351158941517</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.953349344039</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3359.26853091484</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2951.440052205983</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.2933236446496</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.8368624812919</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>406.7465736278451</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6261589547988</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>229.2423205709604</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8572308371443</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.1852518138144</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.7435767800267</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.44962340575</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.188562037826</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.361340132166</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.905902580549</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.72725891115</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.390711911119</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.273193973118</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.950439706312</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.083003945192</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.5972247244127</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1045.826904546564</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>873.7228380212794</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>708.302490214292</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E46" t="n">
-        <v>539.0021314565192</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F46" t="n">
-        <v>494.9020421880094</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>329.768412205327</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>190.3238828871915</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1215786533568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1498016742059</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>464.3567941015008</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.0152137256212</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1342.947618762693</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.654959776497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2205.772746858438</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2553.72817868494</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.369491405431</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.369491405431</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2563.585767694917</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T46" t="n">
-        <v>2318.163966264862</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2040.188610509457</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1753.690747371378</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W46" t="n">
-        <v>1482.121987949159</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.187878274062</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.187878274062</v>
+        <v>1209.575145798643</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>565.7897837222249</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.34673934026068</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>91.63885918545355</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,16 +8380,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,19 +8611,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>125.5471042433173</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>123.5788425003211</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>638.2669124058198</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>935.0031416802869</v>
       </c>
       <c r="M14" t="n">
-        <v>531.8762684426488</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,13 +9170,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9401,13 +9401,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,10 +9416,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9641,13 +9641,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>928.9017102411117</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>695.426890350996</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,7 +10604,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>136.515167914316</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N41" t="n">
-        <v>136.515167914316</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M44" t="n">
-        <v>136.515167914316</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>283.6239937494115</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>167.1322230284998</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.789189859683489</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444074</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>56.36113619101548</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>26.97216184894808</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>65.48800580459017</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>5.132153028921386</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9308428424015</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>65.20415515853256</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>135.0797604404484</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.028263932667585</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>26.33579611060341</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17580493063039</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>122.4480280049971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>58.91774794908507</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>122.4480280049979</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>48.17580493063122</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>92.63792205132715</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6328845066988</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>163.7661443289175</v>
+        <v>144.1344859240864</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.4869149562863</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>38.01774727282194</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>130.8278265804615</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.75057454010678</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.6924054374578</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746048.6886203405</v>
+        <v>759149.0119534843</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746048.6886203405</v>
+        <v>766003.0919126084</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>746048.6886203405</v>
+        <v>766003.0919126084</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662907.4777175237</v>
+        <v>664077.1996273485</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792425.8448162384</v>
+        <v>792425.8448162386</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792425.8448162386</v>
+        <v>792425.8448162384</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792425.8448162384</v>
+        <v>792425.8448162383</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792425.8448162385</v>
+        <v>792425.8448162384</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792425.8448162385</v>
+        <v>792425.8448162384</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792653.119602804</v>
+        <v>792425.8448162383</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792653.119602804</v>
+        <v>792425.8448162385</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792653.119602804</v>
+        <v>792425.8448162384</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>241266.2939506838</v>
       </c>
       <c r="E2" t="n">
-        <v>198335.3086294461</v>
+        <v>198685.277763592</v>
       </c>
       <c r="F2" t="n">
-        <v>237085.9128618085</v>
+        <v>237085.9128618086</v>
       </c>
       <c r="G2" t="n">
         <v>237085.9128618086</v>
       </c>
       <c r="H2" t="n">
-        <v>237085.9128618086</v>
+        <v>237085.9128618085</v>
       </c>
       <c r="I2" t="n">
         <v>237085.9128618085</v>
@@ -26341,19 +26341,19 @@
         <v>237085.9128618085</v>
       </c>
       <c r="L2" t="n">
+        <v>237085.9128618086</v>
+      </c>
+      <c r="M2" t="n">
+        <v>237085.9128618084</v>
+      </c>
+      <c r="N2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>237085.9128618085</v>
       </c>
-      <c r="N2" t="n">
-        <v>237202.5692398571</v>
-      </c>
-      <c r="O2" t="n">
-        <v>237202.5692398571</v>
-      </c>
       <c r="P2" t="n">
-        <v>237202.5692398571</v>
+        <v>237085.9128618085</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889415</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171743.2266455761</v>
+        <v>99874.97317730817</v>
       </c>
       <c r="F3" t="n">
-        <v>79872.20474064809</v>
+        <v>79150.85324460985</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051284</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773548</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143343.1098506391</v>
+        <v>83359.26563805073</v>
       </c>
       <c r="N3" t="n">
-        <v>68212.12920465114</v>
+        <v>67659.41322128734</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194781.6603085978</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>90613.34940614537</v>
+        <v>90773.239622632</v>
       </c>
       <c r="F4" t="n">
         <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26451,13 +26451,13 @@
         <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108662.7711501811</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>108662.7711501811</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>108662.7711501811</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027782</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60769.58456311784</v>
+        <v>60922.65329321259</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
+        <v>77718.23860579249</v>
+      </c>
+      <c r="M5" t="n">
+        <v>77718.23860579249</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77650.48879577281</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77650.48879577281</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77650.48879577281</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178575.0608788175</v>
+        <v>-218351.1103469852</v>
       </c>
       <c r="C6" t="n">
-        <v>-36383.76021910764</v>
+        <v>-42452.41252329572</v>
       </c>
       <c r="D6" t="n">
-        <v>-36383.76021910764</v>
+        <v>-15462.2128844016</v>
       </c>
       <c r="E6" t="n">
-        <v>-124790.8519853933</v>
+        <v>-53122.1495306002</v>
       </c>
       <c r="F6" t="n">
-        <v>-28821.84831309499</v>
+        <v>-28123.72115643933</v>
       </c>
       <c r="G6" t="n">
-        <v>51050.35642755314</v>
+        <v>51027.13208817054</v>
       </c>
       <c r="H6" t="n">
-        <v>51050.35642755311</v>
+        <v>51027.1320881705</v>
       </c>
       <c r="I6" t="n">
-        <v>51050.35642755308</v>
+        <v>51027.13208817048</v>
       </c>
       <c r="J6" t="n">
-        <v>-59964.10891743709</v>
+        <v>-101765.768616958</v>
       </c>
       <c r="K6" t="n">
-        <v>51050.35642755311</v>
+        <v>29525.91269043497</v>
       </c>
       <c r="L6" t="n">
-        <v>51050.35642755308</v>
+        <v>51027.13208817066</v>
       </c>
       <c r="M6" t="n">
-        <v>-92292.75342308606</v>
+        <v>-32332.13354988033</v>
       </c>
       <c r="N6" t="n">
-        <v>-17322.81991074796</v>
+        <v>-16632.28113311687</v>
       </c>
       <c r="O6" t="n">
-        <v>50889.30929390324</v>
+        <v>51027.13208817045</v>
       </c>
       <c r="P6" t="n">
-        <v>50889.30929390318</v>
+        <v>51027.13208817041</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>999.4997461039119</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.519733166959</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>575.2038885838076</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="F4" t="n">
-        <v>278.7607572808334</v>
+        <v>276.2431794832227</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838074</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="N4" t="n">
-        <v>277.0199870630478</v>
+        <v>276.2431794832229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>575.2038885838076</v>
+        <v>334.5021172936659</v>
       </c>
       <c r="N4" t="n">
-        <v>278.7607572808334</v>
+        <v>276.2431794832227</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>153.727477584896</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>104.6753308736479</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.94134903542393</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.6083496753608</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>339.4121877081938</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>3.329665100430134</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,22 +27777,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.29624514453963</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.8985038686587</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>154.9299398130872</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>70.10253359130377</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.1670023117193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.094043910981294e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28327,22 +28327,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.640005758930429e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-4.019843764499216e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.277474189607734e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-5.002220859751105e-12</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4530685415750527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4530685415750453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4530685415750517</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>565.7897837222249</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>583.9724996756217</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.34673934026068</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>91.63885918545355</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>223.0854642319581</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>125.5471042433173</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>123.5788425003211</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35489,10 +35489,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>638.2669124058198</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>935.0031416802869</v>
       </c>
       <c r="M14" t="n">
-        <v>531.8762684426488</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35723,7 +35723,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35960,7 +35960,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
         <v>661.3192390158824</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36060,7 +36060,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821575</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,10 +36136,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36297,7 +36297,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821571</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>928.9017102411117</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>695.426890350996</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,7 +37324,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>136.515167914316</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.90729598065572</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9868610376716</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1791323371758</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3614010928695</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4701331580818</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3447603237287</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N41" t="n">
-        <v>136.515167914316</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.90729598065572</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9868610376716</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8872925496166</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3614010928698</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M44" t="n">
-        <v>136.515167914316</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.90729598065572</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9868610376716</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8872925496165</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5781869061336</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1791323371756</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3614010928698</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4701331580823</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3447603237291</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
